--- a/ejercicios_brian.xlsx
+++ b/ejercicios_brian.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\guardian-biblioteca\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="22980" windowHeight="9288"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
   <si>
     <t>https://codeforces.com/problemset/problem/572/A</t>
   </si>
@@ -480,12 +484,18 @@
   </si>
   <si>
     <t>Reverse</t>
+  </si>
+  <si>
+    <t>Nacho</t>
+  </si>
+  <si>
+    <t>Accepted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,29 +673,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -699,23 +700,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7AD693"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -757,7 +787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,1122 +1031,1128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E74"/>
+  <dimension ref="A2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:O3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="E10" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="E15" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="E18" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="E19" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+      <c r="E23" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="E24" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="E25" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+      <c r="E26" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+      <c r="E27" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="E30" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
+      <c r="E34" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
+      <c r="E35" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
+      <c r="E37" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
+      <c r="E38" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
+      <c r="E39" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
+      <c r="E40" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7" t="s">
+      <c r="E41" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
+      <c r="E42" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
+      <c r="E43" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
+      <c r="E44" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
+      <c r="E48" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7" t="s">
+      <c r="E55" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7" t="s">
+      <c r="E56" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11" t="s">
+      <c r="E58" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="E59" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
+      <c r="E60" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7" t="s">
+      <c r="E61" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7" t="s">
+      <c r="E62" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7" t="s">
+      <c r="E63" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7" t="s">
+      <c r="E64" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7" t="s">
+      <c r="E67" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7" t="s">
+      <c r="E68" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7" t="s">
+      <c r="E69" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7" t="s">
+      <c r="E70" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7" t="s">
+      <c r="E71" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7" t="s">
+      <c r="E72" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11" t="s">
+      <c r="E73" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2127,6 +2163,11 @@
     <mergeCell ref="A26:A54"/>
     <mergeCell ref="A3:A25"/>
   </mergeCells>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
     <hyperlink ref="B17" r:id="rId2"/>

--- a/ejercicios_brian.xlsx
+++ b/ejercicios_brian.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
   <si>
     <t>https://codeforces.com/problemset/problem/572/A</t>
   </si>
@@ -700,6 +700,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -709,16 +713,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1034,7 +1041,7 @@
   <dimension ref="A2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,12 +1068,12 @@
       <c r="E2" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1081,12 +1088,12 @@
       <c r="E3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1099,9 +1106,12 @@
       <c r="E4" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="F4" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1126,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1141,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1156,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1171,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1186,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1201,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1206,7 +1216,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1231,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1246,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1261,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1276,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1291,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1306,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1311,7 +1321,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1336,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1341,7 +1351,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1366,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1381,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1396,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
@@ -1401,7 +1411,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
@@ -1416,7 +1426,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1433,7 +1443,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
@@ -1448,7 +1458,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
@@ -1463,7 +1473,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
@@ -1478,7 +1488,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
@@ -1493,7 +1503,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="5" t="s">
         <v>51</v>
       </c>
@@ -1508,7 +1518,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
@@ -1523,7 +1533,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
@@ -1538,7 +1548,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="5" t="s">
         <v>72</v>
       </c>
@@ -1553,7 +1563,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
@@ -1568,7 +1578,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="5" t="s">
         <v>76</v>
       </c>
@@ -1583,7 +1593,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="5" t="s">
         <v>59</v>
       </c>
@@ -1598,7 +1608,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
@@ -1613,7 +1623,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
@@ -1628,7 +1638,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="5" t="s">
         <v>61</v>
       </c>
@@ -1643,7 +1653,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1668,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="5" t="s">
         <v>86</v>
       </c>
@@ -1673,7 +1683,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="5" t="s">
         <v>87</v>
       </c>
@@ -1688,7 +1698,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="5" t="s">
         <v>73</v>
       </c>
@@ -1703,7 +1713,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="5" t="s">
         <v>74</v>
       </c>
@@ -1718,7 +1728,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="5" t="s">
         <v>75</v>
       </c>
@@ -1733,7 +1743,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="5" t="s">
         <v>77</v>
       </c>
@@ -1748,7 +1758,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="5" t="s">
         <v>89</v>
       </c>
@@ -1763,7 +1773,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="5" t="s">
         <v>90</v>
       </c>
@@ -1778,7 +1788,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="5" t="s">
         <v>85</v>
       </c>
@@ -1793,7 +1803,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="5" t="s">
         <v>88</v>
       </c>
@@ -1808,7 +1818,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="5" t="s">
         <v>92</v>
       </c>
@@ -1823,7 +1833,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="5" t="s">
         <v>71</v>
       </c>
@@ -1838,7 +1848,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="8" t="s">
         <v>69</v>
       </c>
@@ -1853,7 +1863,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1870,7 +1880,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="5" t="s">
         <v>101</v>
       </c>
@@ -1885,7 +1895,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="5" t="s">
         <v>100</v>
       </c>
@@ -1900,7 +1910,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="5" t="s">
         <v>91</v>
       </c>
@@ -1915,7 +1925,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="8" t="s">
         <v>103</v>
       </c>
@@ -1930,7 +1940,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1947,7 +1957,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="5" t="s">
         <v>115</v>
       </c>
@@ -1962,7 +1972,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="5" t="s">
         <v>118</v>
       </c>
@@ -1977,7 +1987,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="5" t="s">
         <v>116</v>
       </c>
@@ -1992,7 +2002,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="5" t="s">
         <v>119</v>
       </c>
@@ -2007,7 +2017,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="5" t="s">
         <v>117</v>
       </c>
@@ -2022,7 +2032,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="5" t="s">
         <v>120</v>
       </c>
@@ -2037,7 +2047,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="5" t="s">
         <v>113</v>
       </c>
@@ -2052,7 +2062,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="5" t="s">
         <v>121</v>
       </c>
@@ -2067,7 +2077,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="5" t="s">
         <v>122</v>
       </c>
@@ -2082,7 +2092,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="5" t="s">
         <v>123</v>
       </c>
@@ -2097,7 +2107,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="5" t="s">
         <v>124</v>
       </c>
@@ -2112,7 +2122,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="5" t="s">
         <v>126</v>
       </c>
@@ -2127,7 +2137,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="5" t="s">
         <v>127</v>
       </c>
@@ -2142,7 +2152,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="8" t="s">
         <v>125</v>
       </c>
@@ -2164,6 +2174,11 @@
     <mergeCell ref="A3:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>

--- a/ejercicios_brian.xlsx
+++ b/ejercicios_brian.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="157">
   <si>
     <t>https://codeforces.com/problemset/problem/572/A</t>
   </si>
@@ -718,7 +718,21 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1041,7 +1055,7 @@
   <dimension ref="A2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H15" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1138,9 @@
       <c r="E5" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="F5" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -1138,6 +1155,9 @@
       </c>
       <c r="E6" s="7" t="s">
         <v>140</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,11 +2194,21 @@
     <mergeCell ref="A3:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>

--- a/ejercicios_brian.xlsx
+++ b/ejercicios_brian.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="157">
   <si>
     <t>https://codeforces.com/problemset/problem/572/A</t>
   </si>
@@ -718,7 +718,14 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1055,7 +1062,7 @@
   <dimension ref="A2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H14:H15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1181,9 @@
       <c r="E7" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="F7" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
@@ -2194,21 +2204,26 @@
     <mergeCell ref="A3:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>

--- a/ejercicios_brian.xlsx
+++ b/ejercicios_brian.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
   <si>
     <t>https://codeforces.com/problemset/problem/572/A</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Accepted</t>
+  </si>
+  <si>
+    <t>Sera contar la cantidad de bits distintos de un numero con el otro y multiplicar eso por 2?</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,21 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1062,7 +1079,7 @@
   <dimension ref="A2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,6 +1231,9 @@
       <c r="E9" s="7" t="s">
         <v>141</v>
       </c>
+      <c r="F9" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
@@ -1229,6 +1249,9 @@
       <c r="E10" s="7" t="s">
         <v>141</v>
       </c>
+      <c r="F10" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -1802,7 +1825,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="5" t="s">
         <v>90</v>
@@ -1817,7 +1840,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="5" t="s">
         <v>85</v>
@@ -1832,7 +1855,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="5" t="s">
         <v>88</v>
@@ -1847,7 +1870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="5" t="s">
         <v>92</v>
@@ -1862,7 +1885,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="5" t="s">
         <v>71</v>
@@ -1877,7 +1900,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="8" t="s">
         <v>69</v>
@@ -1891,8 +1914,11 @@
       <c r="E54" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>144</v>
       </c>
@@ -1909,7 +1935,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="5" t="s">
         <v>101</v>
@@ -1924,7 +1950,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="5" t="s">
         <v>100</v>
@@ -1939,7 +1965,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="5" t="s">
         <v>91</v>
@@ -1954,7 +1980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="8" t="s">
         <v>103</v>
@@ -1969,7 +1995,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>131</v>
       </c>
@@ -1986,7 +2012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="5" t="s">
         <v>115</v>
@@ -2001,7 +2027,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="5" t="s">
         <v>118</v>
@@ -2016,7 +2042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="5" t="s">
         <v>116</v>
@@ -2031,7 +2057,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="5" t="s">
         <v>119</v>
@@ -2204,26 +2230,36 @@
     <mergeCell ref="A3:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F7">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>

--- a/ejercicios_brian.xlsx
+++ b/ejercicios_brian.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="158">
   <si>
     <t>https://codeforces.com/problemset/problem/572/A</t>
   </si>
@@ -721,7 +721,21 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AD693"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1079,7 +1093,7 @@
   <dimension ref="A2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,6 +1281,9 @@
       <c r="E11" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="F11" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
@@ -1281,6 +1298,9 @@
       </c>
       <c r="E12" s="7" t="s">
         <v>140</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,36 +2250,46 @@
     <mergeCell ref="A3:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F7">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F9">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F10">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F11">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
